--- a/src/test/resources/UserData.xlsx
+++ b/src/test/resources/UserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdnas\eclipse-workspace\com.progressive.2022\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27F29AA-426E-462D-9C64-FB3AA8F2F773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B09DDB-59BE-4606-ACBC-1998D6C0E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CEED2FA6-ACD5-40C4-8BA2-194AE4B65103}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{CEED2FA6-ACD5-40C4-8BA2-194AE4B65103}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>Test Case No</t>
   </si>
@@ -608,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75024566-F9BA-49E3-A832-372BC3F86550}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,7 +869,9 @@
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
@@ -931,6 +933,222 @@
         <v>0</v>
       </c>
       <c r="X4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/src/test/resources/UserData.xlsx
+++ b/src/test/resources/UserData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdnas\eclipse-workspace\com.progressive.2022\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B09DDB-59BE-4606-ACBC-1998D6C0E600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F3A4B5-AD0C-496E-8C33-20C0F6868534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{CEED2FA6-ACD5-40C4-8BA2-194AE4B65103}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>Test Case No</t>
   </si>
@@ -223,13 +223,22 @@
     <t>Good Credit with Violation</t>
   </si>
   <si>
-    <t>Bad Credit</t>
-  </si>
-  <si>
     <t>Jahangir</t>
   </si>
   <si>
     <t>Kabir</t>
+  </si>
+  <si>
+    <t>Bad Credit 2</t>
+  </si>
+  <si>
+    <t>Bad Credit 3</t>
+  </si>
+  <si>
+    <t>Bad Credit 4</t>
+  </si>
+  <si>
+    <t>Bad Credit 5</t>
   </si>
 </sst>
 </file>
@@ -611,7 +620,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,13 +739,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>28</v>
@@ -867,11 +876,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
@@ -941,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
@@ -1013,7 +1020,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
@@ -1085,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
